--- a/TD_Tarasevich_3.xlsx
+++ b/TD_Tarasevich_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Medium</t>
-  </si>
-  <si>
-    <t>1)Логин/Пароль введен 2)Пароль/Логин пустой 3)Юзер видит сообщение: "Ошибка: Неверное имя пользователя или пароль"</t>
   </si>
   <si>
     <t>Q-5</t>
@@ -297,22 +294,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Авторизация, пустой логин или пароль                               </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1)Вводим Логин/Пароль 2)Оставляем пустым Пароль/Логин                3)Нажимаем Вход</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -369,17 +350,49 @@
   <si>
     <t>Сompatibility testing</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Авторизация, пустой логин или пароль
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1)Вводим Логин/Пароль 
+2)Оставляем пустым Пароль/Логин                
+3)Нажимаем Вход</t>
+    </r>
+  </si>
+  <si>
+    <t>1)Логин/Пароль введен 
+2)Пароль/Логин пустой 
+3)Юзер видит сообщение: "Ошибка: Неверное имя пользователя или пароль"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,13 +483,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -488,25 +501,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,24 +825,24 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -840,7 +853,7 @@
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -851,7 +864,7 @@
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -862,7 +875,7 @@
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -873,7 +886,7 @@
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -884,7 +897,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -895,18 +908,18 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -917,7 +930,7 @@
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -939,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,19 +966,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -980,7 +993,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>25</v>
@@ -997,13 +1010,13 @@
         <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
@@ -1014,61 +1027,61 @@
         <v>23</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>80</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1098,107 +1111,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>36</v>
+        <v>60</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1211,7 +1224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1223,50 +1236,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
